--- a/data/backend/eureka-server_structure.xlsx
+++ b/data/backend/eureka-server_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
   <si>
     <t>Class Name</t>
   </si>
@@ -146,6 +148,15 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -383,6 +394,70 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>

--- a/data/backend/eureka-server_structure.xlsx
+++ b/data/backend/eureka-server_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>Class Name</t>
   </si>
@@ -153,10 +153,13 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>EurekaApplication()</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +453,18 @@
         <v>14</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>44</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/eureka-server_structure.xlsx
+++ b/data/backend/eureka-server_structure.xlsx
@@ -159,7 +159,7 @@
     <t>EurekaApplication()</t>
   </si>
   <si>
-    <t>0</t>
+    <t>1</t>
   </si>
 </sst>
 </file>

--- a/data/backend/eureka-server_structure.xlsx
+++ b/data/backend/eureka-server_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="45">
   <si>
     <t>Class Name</t>
   </si>
@@ -57,48 +57,51 @@
     <t>void</t>
   </si>
   <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+  </si>
+  <si>
+    <t>getClass()</t>
+  </si>
+  <si>
+    <t>java.lang.Class</t>
+  </si>
+  <si>
+    <t>notifyAll()</t>
+  </si>
+  <si>
+    <t>hashCode()</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>wait()</t>
+  </si>
+  <si>
     <t>notify()</t>
   </si>
   <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>java.lang.String</t>
-  </si>
-  <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
+    <t>EurekaApplication()</t>
+  </si>
+  <si>
     <t>wait(long)</t>
   </si>
   <si>
     <t>wait(long, int)</t>
   </si>
   <si>
-    <t>getClass()</t>
-  </si>
-  <si>
-    <t>java.lang.Class</t>
-  </si>
-  <si>
     <t>clone()</t>
   </si>
   <si>
     <t>java.lang.Object</t>
   </si>
   <si>
-    <t>notifyAll()</t>
-  </si>
-  <si>
-    <t>hashCode()</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>wait()</t>
-  </si>
-  <si>
     <t>Interface Name</t>
   </si>
   <si>
@@ -154,12 +157,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>EurekaApplication()</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -204,7 +201,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -263,7 +260,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -271,13 +268,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -285,7 +282,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
@@ -299,13 +296,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -313,7 +310,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
@@ -327,13 +324,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -341,13 +338,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -375,7 +372,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -383,7 +380,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
@@ -392,6 +389,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -410,7 +421,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
@@ -418,31 +429,31 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="2">
@@ -450,22 +461,11 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C3" t="s" s="0">
-        <v>45</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -482,14 +482,14 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="B1" t="s" s="0">
         <v>27</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>28</v>
+      </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
@@ -512,14 +512,14 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>30</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -536,27 +536,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="B1" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="C1" t="s" s="0">
         <v>34</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>35</v>
+      </c>
       <c r="E1" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>35</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E1" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -566,140 +626,80 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="B1" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="0">
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s" s="0">
         <v>37</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>42</v>
+      </c>
       <c r="E1" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
